--- a/data/macro_data.xlsx
+++ b/data/macro_data.xlsx
@@ -442,7 +442,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>('vix', '^VIX')</t>
+          <t>vix</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
